--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/12,25/02,12,25 Ост КИ филиалы/дв 02,12,25 днрсч ост ки от Переверзева.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/12,25/02,12,25 Ост КИ филиалы/дв 02,12,25 днрсч ост ки от Переверзева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\02,12,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\12,25\02,12,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AEB226-D763-4778-9395-965EC7AAB59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7B02D-BA0A-4CD5-8FB8-CCA4FCB9F1AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AI$95</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1009,7 +1009,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1701,7 +1701,7 @@
         <v>147</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" ref="AI7:AJ70" si="9">G7*T7</f>
+        <f t="shared" ref="AI7:AI70" si="9">G7*T7</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
@@ -3376,7 +3376,7 @@
         <v>123</v>
       </c>
       <c r="U21" s="5">
-        <f t="shared" ref="U21:U22" si="14">ROUND(S21/$U$1,0)</f>
+        <f t="shared" ref="U21" si="14">ROUND(S21/$U$1,0)</f>
         <v>247</v>
       </c>
       <c r="V21" s="5"/>
@@ -5349,7 +5349,7 @@
         <v>44</v>
       </c>
       <c r="U37" s="5">
-        <f t="shared" ref="U37:U38" si="17">ROUND(S37/$U$1,0)</f>
+        <f t="shared" ref="U37" si="17">ROUND(S37/$U$1,0)</f>
         <v>87</v>
       </c>
       <c r="V37" s="5"/>
@@ -5480,7 +5480,10 @@
         <v>73</v>
       </c>
       <c r="V38" s="5"/>
-      <c r="W38" s="1"/>
+      <c r="W38" s="25">
+        <f>Z38/AA38</f>
+        <v>1.6451612903225807</v>
+      </c>
       <c r="X38" s="1">
         <f t="shared" si="8"/>
         <v>14.00537634408602</v>
@@ -5723,7 +5726,7 @@
         <v>113</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" ref="U40:U41" si="21">ROUND(S40/$U$1,0)</f>
+        <f t="shared" ref="U40" si="21">ROUND(S40/$U$1,0)</f>
         <v>227</v>
       </c>
       <c r="V40" s="5"/>
@@ -9531,7 +9534,7 @@
       </c>
       <c r="AH71" s="1"/>
       <c r="AI71" s="1">
-        <f t="shared" ref="AI71:AJ95" si="29">G71*T71</f>
+        <f t="shared" ref="AI71:AI95" si="29">G71*T71</f>
         <v>1.2600000000000002</v>
       </c>
       <c r="AJ71" s="1">
